--- a/ET2.xlsx
+++ b/ET2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morea\Desktop\Análisis Numérico I\ET2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB6BA45-AD35-460B-A1F7-9FFEE044D530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC67ED-2D3A-4F73-8D49-6CB85B0D746E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B81C6378-0440-4E81-BFDF-B81B45941C03}"/>
   </bookViews>
@@ -870,12 +870,12 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="640816"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -917,6 +917,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1033,7 +1034,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1093,12 +1094,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4514850" cy="581698"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1140,6 +1141,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1442,7 +1444,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1798,15 +1800,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9214411F-435C-46B8-BC14-A93B076E7FEC}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1858,11 +1862,11 @@
       </c>
       <c r="D3">
         <f>(K4+B3*K5)/SQRT(1-B3^2/K3^2)-K6</f>
-        <v>4319731918.9221935</v>
+        <v>-6064972981.0778065</v>
       </c>
       <c r="E3">
         <f>(K4+C3*K5)/SQRT(1-C3^2/K3^2)-K6</f>
-        <v>52624034371.868904</v>
+        <v>42239329471.868904</v>
       </c>
       <c r="F3">
         <f>(B3+C3)/2</f>
@@ -1870,7 +1874,7 @@
       </c>
       <c r="G3">
         <f>(K4+F3*K5)/SQRT(1-F3^2/K3^2)-K6</f>
-        <v>8365856815.8086138</v>
+        <v>-2018848084.1913862</v>
       </c>
       <c r="H3">
         <f>(C3-B3)/2</f>
@@ -1888,6 +1892,34 @@
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4">
+        <f>F3</f>
+        <v>223500000</v>
+      </c>
+      <c r="C4">
+        <f>C3</f>
+        <v>297000000</v>
+      </c>
+      <c r="D4">
+        <f>G3</f>
+        <v>-2018848084.1913862</v>
+      </c>
+      <c r="E4">
+        <f>E3</f>
+        <v>42239329471.868904</v>
+      </c>
+      <c r="F4">
+        <f>(B4+C4)/2</f>
+        <v>260250000</v>
+      </c>
+      <c r="G4">
+        <f>(K4+F4*K5)/SQRT(1-F4^2/K3^2)-K6</f>
+        <v>2684440966.9931335</v>
+      </c>
+      <c r="H4">
+        <f>(C4-B4)/2</f>
+        <v>36750000</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1899,6 +1931,34 @@
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5">
+        <f>B4</f>
+        <v>223500000</v>
+      </c>
+      <c r="C5">
+        <f>F4</f>
+        <v>260250000</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>-2018848084.1913862</v>
+      </c>
+      <c r="E5">
+        <f>G4</f>
+        <v>2684440966.9931335</v>
+      </c>
+      <c r="F5">
+        <f>(B5+C5)/2</f>
+        <v>241875000</v>
+      </c>
+      <c r="G5">
+        <f>(K4+F5*K5)/SQRT(1-F5^2/K3^2)-K6</f>
+        <v>-173445311.12325287</v>
+      </c>
+      <c r="H5">
+        <f>(C5-B5)/2</f>
+        <v>18375000</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1910,18 +1970,74 @@
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6">
+        <f>F5</f>
+        <v>241875000</v>
+      </c>
+      <c r="C6">
+        <f>C5</f>
+        <v>260250000</v>
+      </c>
+      <c r="D6">
+        <f>G5</f>
+        <v>-173445311.12325287</v>
+      </c>
+      <c r="E6">
+        <f>E5</f>
+        <v>2684440966.9931335</v>
+      </c>
+      <c r="F6">
+        <f>(B6+C6)/2</f>
+        <v>251062500</v>
+      </c>
+      <c r="G6">
+        <f>(K4+F6*K5)/SQRT(1-F6^2/K3^2)-K6</f>
+        <v>1071160222.4061184</v>
+      </c>
+      <c r="H6">
+        <f>(C6-B6)/2</f>
+        <v>9187500</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K6">
-        <f xml:space="preserve"> 100 * K7</f>
-        <v>10395100</v>
+        <f xml:space="preserve"> 10^5 * K7</f>
+        <v>10395100000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>241875000</v>
+      </c>
+      <c r="C7">
+        <f>F6</f>
+        <v>251062500</v>
+      </c>
+      <c r="D7">
+        <f>D6</f>
+        <v>-173445311.12325287</v>
+      </c>
+      <c r="E7">
+        <f>G6</f>
+        <v>1071160222.4061184</v>
+      </c>
+      <c r="F7">
+        <f>(B7+C7)/2</f>
+        <v>246468750</v>
+      </c>
+      <c r="G7">
+        <f>(K4+F7*K5)/SQRT(1-F7^2/K3^2)-K6</f>
+        <v>412686768.51501846</v>
+      </c>
+      <c r="H7">
+        <f>(C7-B7)/2</f>
+        <v>4593750</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1933,184 +2049,945 @@
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>241875000</v>
+      </c>
+      <c r="C8">
+        <f>F7</f>
+        <v>246468750</v>
+      </c>
+      <c r="D8">
+        <f>D7</f>
+        <v>-173445311.12325287</v>
+      </c>
+      <c r="E8">
+        <f>G7</f>
+        <v>412686768.51501846</v>
+      </c>
+      <c r="F8">
+        <f>(B8+C8)/2</f>
+        <v>244171875</v>
+      </c>
+      <c r="G8">
+        <f>(K4+F8*K5)/SQRT(1-F8^2/K3^2)-K6</f>
+        <v>111503291.89706993</v>
+      </c>
+      <c r="H8">
+        <f>(C8-B8)/2</f>
+        <v>2296875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>241875000</v>
+      </c>
+      <c r="C9">
+        <f>F8</f>
+        <v>244171875</v>
+      </c>
+      <c r="D9">
+        <f>D8</f>
+        <v>-173445311.12325287</v>
+      </c>
+      <c r="E9">
+        <f>G8</f>
+        <v>111503291.89706993</v>
+      </c>
+      <c r="F9">
+        <f>(B9+C9)/2</f>
+        <v>243023437.5</v>
+      </c>
+      <c r="G9">
+        <f>(K4+F9*K5)/SQRT(1-F9^2/K3^2)-K6</f>
+        <v>-32898965.600805283</v>
+      </c>
+      <c r="H9">
+        <f>(C9-B9)/2</f>
+        <v>1148437.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>F9</f>
+        <v>243023437.5</v>
+      </c>
+      <c r="C10">
+        <f>C9</f>
+        <v>244171875</v>
+      </c>
+      <c r="D10">
+        <f>G9</f>
+        <v>-32898965.600805283</v>
+      </c>
+      <c r="E10">
+        <f>E9</f>
+        <v>111503291.89706993</v>
+      </c>
+      <c r="F10">
+        <f>(B10+C10)/2</f>
+        <v>243597656.25</v>
+      </c>
+      <c r="G10">
+        <f>(K4+F10*K5)/SQRT(1-F10^2/K3^2)-K6</f>
+        <v>38808059.268499374</v>
+      </c>
+      <c r="H10">
+        <f>(C10-B10)/2</f>
+        <v>574218.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>243023437.5</v>
+      </c>
+      <c r="C11">
+        <f>F10</f>
+        <v>243597656.25</v>
+      </c>
+      <c r="D11">
+        <f>D10</f>
+        <v>-32898965.600805283</v>
+      </c>
+      <c r="E11">
+        <f>G10</f>
+        <v>38808059.268499374</v>
+      </c>
+      <c r="F11">
+        <f>(B11+C11)/2</f>
+        <v>243310546.875</v>
+      </c>
+      <c r="G11">
+        <f>(K4+F11*K5)/SQRT(1-F11^2/K3^2)-K6</f>
+        <v>2832568.5060138702</v>
+      </c>
+      <c r="H11">
+        <f>(C11-B11)/2</f>
+        <v>287109.375</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>B11</f>
+        <v>243023437.5</v>
+      </c>
+      <c r="C12">
+        <f>F11</f>
+        <v>243310546.875</v>
+      </c>
+      <c r="D12">
+        <f>D11</f>
+        <v>-32898965.600805283</v>
+      </c>
+      <c r="E12">
+        <f>G11</f>
+        <v>2832568.5060138702</v>
+      </c>
+      <c r="F12">
+        <f>(B12+C12)/2</f>
+        <v>243166992.1875</v>
+      </c>
+      <c r="G12">
+        <f>(K4+F12*K5)/SQRT(1-F12^2/K3^2)-K6</f>
+        <v>-15063502.645582199</v>
+      </c>
+      <c r="H12">
+        <f>(C12-B12)/2</f>
+        <v>143554.6875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>F12</f>
+        <v>243166992.1875</v>
+      </c>
+      <c r="C13">
+        <f>C12</f>
+        <v>243310546.875</v>
+      </c>
+      <c r="D13">
+        <f>G12</f>
+        <v>-15063502.645582199</v>
+      </c>
+      <c r="E13">
+        <f>E12</f>
+        <v>2832568.5060138702</v>
+      </c>
+      <c r="F13">
+        <f>(B13+C13)/2</f>
+        <v>243238769.53125</v>
+      </c>
+      <c r="G13">
+        <f>(K4+F13*K5)/SQRT(1-F13^2/K3^2)-K6</f>
+        <v>-6123066.7741031647</v>
+      </c>
+      <c r="H13">
+        <f>(C13-B13)/2</f>
+        <v>71777.34375</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>F13</f>
+        <v>243238769.53125</v>
+      </c>
+      <c r="C14">
+        <f>C13</f>
+        <v>243310546.875</v>
+      </c>
+      <c r="D14">
+        <f>G13</f>
+        <v>-6123066.7741031647</v>
+      </c>
+      <c r="E14">
+        <f>E13</f>
+        <v>2832568.5060138702</v>
+      </c>
+      <c r="F14">
+        <f>(B14+C14)/2</f>
+        <v>243274658.203125</v>
+      </c>
+      <c r="G14">
+        <f>(K4+F14*K5)/SQRT(1-F14^2/K3^2)-K6</f>
+        <v>-1647152.0314731598</v>
+      </c>
+      <c r="H14">
+        <f>(C14-B14)/2</f>
+        <v>35888.671875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>F14</f>
+        <v>243274658.203125</v>
+      </c>
+      <c r="C15">
+        <f>C14</f>
+        <v>243310546.875</v>
+      </c>
+      <c r="D15">
+        <f>G14</f>
+        <v>-1647152.0314731598</v>
+      </c>
+      <c r="E15">
+        <f>E14</f>
+        <v>2832568.5060138702</v>
+      </c>
+      <c r="F15">
+        <f>(B15+C15)/2</f>
+        <v>243292602.5390625</v>
+      </c>
+      <c r="G15">
+        <f>(K4+F15*K5)/SQRT(1-F15^2/K3^2)-K6</f>
+        <v>592232.14077949524</v>
+      </c>
+      <c r="H15">
+        <f>(C15-B15)/2</f>
+        <v>17944.3359375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>B15</f>
+        <v>243274658.203125</v>
+      </c>
+      <c r="C16">
+        <f>F15</f>
+        <v>243292602.5390625</v>
+      </c>
+      <c r="D16">
+        <f>D15</f>
+        <v>-1647152.0314731598</v>
+      </c>
+      <c r="E16">
+        <f>G15</f>
+        <v>592232.14077949524</v>
+      </c>
+      <c r="F16">
+        <f>(B16+C16)/2</f>
+        <v>243283630.37109375</v>
+      </c>
+      <c r="G16">
+        <f>(K4+F16*K5)/SQRT(1-F16^2/K3^2)-K6</f>
+        <v>-527578.92292022705</v>
+      </c>
+      <c r="H16">
+        <f>(C16-B16)/2</f>
+        <v>8972.16796875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>F16</f>
+        <v>243283630.37109375</v>
+      </c>
+      <c r="C17">
+        <f>C16</f>
+        <v>243292602.5390625</v>
+      </c>
+      <c r="D17">
+        <f>G16</f>
+        <v>-527578.92292022705</v>
+      </c>
+      <c r="E17">
+        <f>E16</f>
+        <v>592232.14077949524</v>
+      </c>
+      <c r="F17">
+        <f>(B17+C17)/2</f>
+        <v>243288116.45507813</v>
+      </c>
+      <c r="G17">
+        <f>(K4+F17*K5)/SQRT(1-F17^2/K3^2)-K6</f>
+        <v>32296.85871887207</v>
+      </c>
+      <c r="H17">
+        <f>(C17-B17)/2</f>
+        <v>4486.083984375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>B17</f>
+        <v>243283630.37109375</v>
+      </c>
+      <c r="C18">
+        <f>F17</f>
+        <v>243288116.45507813</v>
+      </c>
+      <c r="D18">
+        <f>D17</f>
+        <v>-527578.92292022705</v>
+      </c>
+      <c r="E18">
+        <f>G17</f>
+        <v>32296.85871887207</v>
+      </c>
+      <c r="F18">
+        <f>(B18+C18)/2</f>
+        <v>243285873.41308594</v>
+      </c>
+      <c r="G18">
+        <f>(K4+F18*K5)/SQRT(1-F18^2/K3^2)-K6</f>
+        <v>-247648.46892547607</v>
+      </c>
+      <c r="H18">
+        <f>(C18-B18)/2</f>
+        <v>2243.0419921875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f>F18</f>
+        <v>243285873.41308594</v>
+      </c>
+      <c r="C19">
+        <f>C18</f>
+        <v>243288116.45507813</v>
+      </c>
+      <c r="D19">
+        <f>G18</f>
+        <v>-247648.46892547607</v>
+      </c>
+      <c r="E19">
+        <f>E18</f>
+        <v>32296.85871887207</v>
+      </c>
+      <c r="F19">
+        <f>(B19+C19)/2</f>
+        <v>243286994.93408203</v>
+      </c>
+      <c r="G19">
+        <f>(K4+F19*K5)/SQRT(1-F19^2/K3^2)-K6</f>
+        <v>-107677.66440010071</v>
+      </c>
+      <c r="H19">
+        <f>(C19-B19)/2</f>
+        <v>1121.52099609375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f>F19</f>
+        <v>243286994.93408203</v>
+      </c>
+      <c r="C20">
+        <f>C19</f>
+        <v>243288116.45507813</v>
+      </c>
+      <c r="D20">
+        <f>G19</f>
+        <v>-107677.66440010071</v>
+      </c>
+      <c r="E20">
+        <f>E19</f>
+        <v>32296.85871887207</v>
+      </c>
+      <c r="F20">
+        <f>(B20+C20)/2</f>
+        <v>243287555.69458008</v>
+      </c>
+      <c r="G20">
+        <f>(K4+F20*K5)/SQRT(1-F20^2/K3^2)-K6</f>
+        <v>-37690.86767578125</v>
+      </c>
+      <c r="H20">
+        <f>(C20-B20)/2</f>
+        <v>560.760498046875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f>F20</f>
+        <v>243287555.69458008</v>
+      </c>
+      <c r="C21">
+        <f>C20</f>
+        <v>243288116.45507813</v>
+      </c>
+      <c r="D21">
+        <f>G20</f>
+        <v>-37690.86767578125</v>
+      </c>
+      <c r="E21">
+        <f>E20</f>
+        <v>32296.85871887207</v>
+      </c>
+      <c r="F21">
+        <f>(B21+C21)/2</f>
+        <v>243287836.0748291</v>
+      </c>
+      <c r="G21">
+        <f>(K4+F21*K5)/SQRT(1-F21^2/K3^2)-K6</f>
+        <v>-2697.1206874847412</v>
+      </c>
+      <c r="H21">
+        <f>(C21-B21)/2</f>
+        <v>280.3802490234375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>F21</f>
+        <v>243287836.0748291</v>
+      </c>
+      <c r="C22">
+        <f>C21</f>
+        <v>243288116.45507813</v>
+      </c>
+      <c r="D22">
+        <f>G21</f>
+        <v>-2697.1206874847412</v>
+      </c>
+      <c r="E22">
+        <f>E21</f>
+        <v>32296.85871887207</v>
+      </c>
+      <c r="F22">
+        <f>(B22+C22)/2</f>
+        <v>243287976.26495361</v>
+      </c>
+      <c r="G22">
+        <f>(K4+F22*K5)/SQRT(1-F22^2/K3^2)-K6</f>
+        <v>14799.839962005615</v>
+      </c>
+      <c r="H22">
+        <f>(C22-B22)/2</f>
+        <v>140.19012451171875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>B22</f>
+        <v>243287836.0748291</v>
+      </c>
+      <c r="C23">
+        <f>F22</f>
+        <v>243287976.26495361</v>
+      </c>
+      <c r="D23">
+        <f>D22</f>
+        <v>-2697.1206874847412</v>
+      </c>
+      <c r="E23">
+        <f>G22</f>
+        <v>14799.839962005615</v>
+      </c>
+      <c r="F23">
+        <f>(B23+C23)/2</f>
+        <v>243287906.16989136</v>
+      </c>
+      <c r="G23">
+        <f>(K4+F23*K5)/SQRT(1-F23^2/K3^2)-K6</f>
+        <v>6051.3523750305176</v>
+      </c>
+      <c r="H23">
+        <f>(C23-B23)/2</f>
+        <v>70.095062255859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f>B23</f>
+        <v>243287836.0748291</v>
+      </c>
+      <c r="C24">
+        <f>F23</f>
+        <v>243287906.16989136</v>
+      </c>
+      <c r="D24">
+        <f>D23</f>
+        <v>-2697.1206874847412</v>
+      </c>
+      <c r="E24">
+        <f>G23</f>
+        <v>6051.3523750305176</v>
+      </c>
+      <c r="F24">
+        <f>(B24+C24)/2</f>
+        <v>243287871.12236023</v>
+      </c>
+      <c r="G24">
+        <f>(K4+F24*K5)/SQRT(1-F24^2/K3^2)-K6</f>
+        <v>1677.1140251159668</v>
+      </c>
+      <c r="H24">
+        <f>(C24-B24)/2</f>
+        <v>35.047531127929688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f>B24</f>
+        <v>243287836.0748291</v>
+      </c>
+      <c r="C25">
+        <f>F24</f>
+        <v>243287871.12236023</v>
+      </c>
+      <c r="D25">
+        <f>D24</f>
+        <v>-2697.1206874847412</v>
+      </c>
+      <c r="E25">
+        <f>G24</f>
+        <v>1677.1140251159668</v>
+      </c>
+      <c r="F25">
+        <f>(B25+C25)/2</f>
+        <v>243287853.59859467</v>
+      </c>
+      <c r="G25">
+        <f>(K4+F25*K5)/SQRT(1-F25^2/K3^2)-K6</f>
+        <v>-510.00378608703613</v>
+      </c>
+      <c r="H25">
+        <f>(C25-B25)/2</f>
+        <v>17.523765563964844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f>F25</f>
+        <v>243287853.59859467</v>
+      </c>
+      <c r="C26">
+        <f>C25</f>
+        <v>243287871.12236023</v>
+      </c>
+      <c r="D26">
+        <f>G25</f>
+        <v>-510.00378608703613</v>
+      </c>
+      <c r="E26">
+        <f>E25</f>
+        <v>1677.1140251159668</v>
+      </c>
+      <c r="F26">
+        <f>(B26+C26)/2</f>
+        <v>243287862.36047745</v>
+      </c>
+      <c r="G26">
+        <f>(K4+F26*K5)/SQRT(1-F26^2/K3^2)-K6</f>
+        <v>583.55500602722168</v>
+      </c>
+      <c r="H26">
+        <f>(C26-B26)/2</f>
+        <v>8.7618827819824219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>243287853.59859467</v>
+      </c>
+      <c r="C27">
+        <f>F26</f>
+        <v>243287862.36047745</v>
+      </c>
+      <c r="D27">
+        <f>D26</f>
+        <v>-510.00378608703613</v>
+      </c>
+      <c r="E27">
+        <f>G26</f>
+        <v>583.55500602722168</v>
+      </c>
+      <c r="F27">
+        <f>(B27+C27)/2</f>
+        <v>243287857.97953606</v>
+      </c>
+      <c r="G27">
+        <f>(K4+F27*K5)/SQRT(1-F27^2/K3^2)-K6</f>
+        <v>36.775583267211914</v>
+      </c>
+      <c r="H27">
+        <f>(C27-B27)/2</f>
+        <v>4.3809413909912109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f>B27</f>
+        <v>243287853.59859467</v>
+      </c>
+      <c r="C28">
+        <f>G27</f>
+        <v>36.775583267211914</v>
+      </c>
+      <c r="D28">
+        <f>D27</f>
+        <v>-510.00378608703613</v>
+      </c>
+      <c r="E28">
+        <f>G27</f>
+        <v>36.775583267211914</v>
+      </c>
+      <c r="F28">
+        <f>(B28+C28)/2</f>
+        <v>121643945.18708897</v>
+      </c>
+      <c r="G28">
+        <f>(K4+F28*K5)/SQRT(1-F28^2/K3^2)-K6</f>
+        <v>-7068237149.7562456</v>
+      </c>
+      <c r="H28">
+        <f>(C28-B28)/2</f>
+        <v>-121643908.4115057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <f>(B29+C29)/2</f>
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="G29">
+        <f>(K4+F29*K5)/SQRT(1-F29^2/K3^2)-K6</f>
+        <v>-10395100000</v>
+      </c>
+      <c r="H29">
+        <f>(C29-B29)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>(B30+C30)/2</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>(K4+F30*K5)/SQRT(1-F30^2/K3^2)-K6</f>
+        <v>-10395100000</v>
+      </c>
+      <c r="H30">
+        <f>(C30-B30)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <f>(B31+C31)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>(C31-B31)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <f>(B32+C32)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>(C32-B32)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <f>(B33+C33)/2</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>(C33-B33)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
         <f>0.5*K3</f>
         <v>150000000</v>
       </c>
-      <c r="C14">
+      <c r="C39">
         <f>0.99*K3</f>
         <v>297000000</v>
       </c>
-      <c r="D14">
-        <f>(K4+B14*K5)/SQRT(1-B14^2/K3^2)-K6</f>
-        <v>4319731918.9221935</v>
-      </c>
-      <c r="E14">
-        <f>(K4+C14*K5)/SQRT(1-C14^2/K3^2)-K6</f>
-        <v>52624034371.868904</v>
-      </c>
-      <c r="F14">
-        <f>B14-(C14-B14)*D14/(E14-D14)</f>
-        <v>136854160.81310526</v>
-      </c>
-      <c r="G14">
-        <f>(K4+F14*K5)/SQRT(1-F14^2/K3^2)-K6</f>
-        <v>3834309966.3454361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D39">
+        <f>(K4+B39*K5)/SQRT(1-B39^2/K3^2)-K6</f>
+        <v>-6064972981.0778065</v>
+      </c>
+      <c r="E39">
+        <f>(K4+C39*K5)/SQRT(1-C39^2/K3^2)-K6</f>
+        <v>42239329471.868904</v>
+      </c>
+      <c r="F39">
+        <f>B39-(C39-B39)*D39/(E39-D39)</f>
+        <v>168456969.31628188</v>
+      </c>
+      <c r="G39">
+        <f>(K4+F39*K5)/SQRT(1-F39^2/K3^2)-K6</f>
+        <v>-5305525539.1553144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J57" t="s">
         <v>24</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>0</v>
       </c>
-      <c r="D33">
-        <f>(K4+B33*K5)/SQRT(1-B33^2/K3^2)-K6</f>
-        <v>-10395100</v>
-      </c>
-      <c r="E33">
-        <f>(K4+C33*K5)/SQRT(1-C33^2/K3^2)-K6</f>
-        <v>-10395100</v>
-      </c>
-      <c r="F33" t="e">
-        <f>C33-E33*(C33-B33)/(E33-D33)</f>
+      <c r="D58">
+        <f>(K4+B58*K5)/SQRT(1-B58^2/K3^2)-K6</f>
+        <v>-10395100000</v>
+      </c>
+      <c r="E58">
+        <f>(K4+C58*K5)/SQRT(1-C58^2/K3^2)-K6</f>
+        <v>-10395100000</v>
+      </c>
+      <c r="F58" t="e">
+        <f>C58-E58*(C58-B58)/(E58-D58)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>2</v>
       </c>
     </row>
